--- a/reporttankmovil/tpCertificadoMovil.xlsx
+++ b/reporttankmovil/tpCertificadoMovil.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\API_REST_DRF\api_qc_django_restf_v2\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\API_REST_DRF\api_qc_django_restf_v2\reporttankmovil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>Galones</t>
   </si>
   <si>
-    <t>Litros</t>
-  </si>
-  <si>
     <t>Ubicación</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve"> bajo el informe de inspección N° </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litros </t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,6 +450,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,17 +498,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,88 +1052,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1140,41 +1143,41 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1182,22 +1185,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,66 +1209,73 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
-        <v>11</v>
+      <c r="G16">
+        <f>E16*3.78541</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="B19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
@@ -1275,177 +1285,177 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -1455,66 +1465,66 @@
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="10"/>
+      <c r="F41" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="F41" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:8" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20" t="s">
+      <c r="A43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="21"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -1535,16 +1545,16 @@
       <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="A46" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
